--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,34 @@
   </si>
   <si>
     <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/wechat_api/customer/findcontactbytagAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"wechatUserId":746,"tagIds":"81100608"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":"int","msg":"str","data":[{"wechatContactId":"int","wechatUserId":"int","uin":"str","userName":"str","nickName":"str","headImgUrl":"str","remarkName":"str","sex":"str","verifyFlag":"str","isDelete":"int","isSaving":"int","memberCount":null,"groupId":null,"wechatUserName":"wxid_jmg3nu2goog222","alias":"zzzslcn","contactFlag":"3","wechatUserUin":"str","wechatUserNickName":"str","adminUserId":"int","customerNickName":"str"}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过标签获取客户列表（可获取子账号的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄文榕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +144,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,18 +450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -477,14 +508,28 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:8" ht="81">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
